--- a/data/trans_dic/POLIPATOLOGIA_2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_2-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,41; 19,32</t>
+          <t>12,43; 19,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,19; 23,77</t>
+          <t>15,89; 24,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,89; 27,56</t>
+          <t>19,01; 27,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,53; 33,86</t>
+          <t>26,21; 34,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,99; 27,21</t>
+          <t>17,44; 26,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,88; 26,93</t>
+          <t>16,55; 26,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,98; 30,21</t>
+          <t>20,34; 29,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,57; 43,3</t>
+          <t>35,43; 43,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,63; 21,07</t>
+          <t>15,39; 21,28</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,62; 23,77</t>
+          <t>17,41; 23,66</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,67; 27,4</t>
+          <t>20,8; 27,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>31,68; 37,22</t>
+          <t>31,54; 37,4</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,53; 18,74</t>
+          <t>11,33; 18,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,48; 25,51</t>
+          <t>16,48; 24,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,96; 25,49</t>
+          <t>17,2; 25,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,66; 37,54</t>
+          <t>29,16; 37,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,24; 29,09</t>
+          <t>20,67; 29,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,0; 33,18</t>
+          <t>23,08; 33,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,86; 27,07</t>
+          <t>17,81; 27,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,41; 44,27</t>
+          <t>36,31; 44,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,07; 22,75</t>
+          <t>17,26; 22,96</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,43; 26,8</t>
+          <t>20,34; 27,34</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,63; 24,43</t>
+          <t>18,62; 24,67</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>33,68; 40,11</t>
+          <t>33,18; 39,56</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,0; 26,05</t>
+          <t>19,43; 26,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,78; 34,5</t>
+          <t>26,55; 34,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,65; 31,29</t>
+          <t>23,55; 31,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,02; 37,68</t>
+          <t>8,48; 38,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,4; 41,61</t>
+          <t>25,81; 39,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,6; 43,87</t>
+          <t>31,01; 43,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>28,39; 44,07</t>
+          <t>28,05; 43,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>50,66; 63,18</t>
+          <t>50,28; 62,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,18; 28,61</t>
+          <t>21,76; 28,26</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>29,4; 35,59</t>
+          <t>29,32; 36,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>25,6; 32,98</t>
+          <t>25,96; 33,23</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,65; 43,05</t>
+          <t>12,55; 43,31</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,85; 27,82</t>
+          <t>22,97; 27,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,51; 31,0</t>
+          <t>25,76; 31,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,96; 28,07</t>
+          <t>23,16; 28,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,14; 38,32</t>
+          <t>32,13; 38,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,44; 32,01</t>
+          <t>25,76; 32,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,25; 32,87</t>
+          <t>26,21; 33,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,42; 31,67</t>
+          <t>25,21; 31,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>41,15; 75,89</t>
+          <t>41,16; 77,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,69; 28,66</t>
+          <t>24,62; 28,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,68; 31,0</t>
+          <t>26,56; 30,93</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24,76; 28,78</t>
+          <t>24,88; 28,69</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>37,49; 62,53</t>
+          <t>37,25; 59,59</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,21; 25,81</t>
+          <t>17,24; 26,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,2; 27,81</t>
+          <t>20,24; 27,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>25,53; 32,98</t>
+          <t>25,26; 32,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32,32; 41,74</t>
+          <t>32,54; 41,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,86; 38,43</t>
+          <t>29,93; 38,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>42,94; 50,27</t>
+          <t>42,46; 50,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>42,5; 50,19</t>
+          <t>42,14; 49,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>50,88; 66,85</t>
+          <t>50,62; 67,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>26,47; 32,59</t>
+          <t>26,35; 32,49</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>34,82; 40,12</t>
+          <t>34,77; 40,25</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>35,65; 40,83</t>
+          <t>35,59; 40,88</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>44,98; 56,96</t>
+          <t>45,17; 58,1</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,57; 5,56</t>
+          <t>1,63; 5,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,37; 9,92</t>
+          <t>3,64; 10,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,1; 8,26</t>
+          <t>3,13; 8,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,23; 24,57</t>
+          <t>8,98; 24,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>38,7; 43,89</t>
+          <t>38,47; 44,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>45,05; 51,31</t>
+          <t>45,17; 51,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>40,17; 46,67</t>
+          <t>40,23; 46,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>43,82; 50,37</t>
+          <t>43,52; 50,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>31,6; 36,17</t>
+          <t>31,73; 36,5</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>37,2; 42,6</t>
+          <t>37,49; 43,0</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>32,88; 38,41</t>
+          <t>32,81; 38,09</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>36,08; 42,72</t>
+          <t>36,43; 42,97</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,49; 21,22</t>
+          <t>18,46; 21,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,66; 25,73</t>
+          <t>22,69; 25,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,37; 25,3</t>
+          <t>22,52; 25,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,12; 33,56</t>
+          <t>23,49; 33,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>31,9; 35,35</t>
+          <t>32,03; 35,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>37,02; 40,45</t>
+          <t>37,07; 40,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>34,38; 37,72</t>
+          <t>34,22; 37,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>45,99; 60,36</t>
+          <t>46,28; 61,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>25,68; 27,8</t>
+          <t>25,67; 27,83</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>30,59; 32,83</t>
+          <t>30,38; 32,67</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>29,02; 31,34</t>
+          <t>29,0; 31,2</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>36,67; 46,61</t>
+          <t>36,64; 46,24</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dos o más enfermedades crónicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>73662</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>85987</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>98702</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>151259</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>68083</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>67679</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>86262</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>176777</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>141745</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>153666</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>184965</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>328036</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>58877; 92095</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>69484; 105873</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>81588; 116876</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>132398; 172773</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>53487; 82314</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>52055; 83470</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>70577; 102011</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>158527; 194786</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>120107; 166110</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>130901; 177812</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>161457; 212122</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>300477; 356256</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>54890</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>85497</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>79859</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>151142</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>91623</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>93371</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>82717</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>153800</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>146513</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>178868</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>162577</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>304943</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>41581; 69464</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>69034; 103841</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>64883; 97637</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>131844; 171710</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>76865; 110135</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>78000; 113255</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>66307; 101563</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>138930; 170885</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>127546; 169642</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>153963; 206948</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>139529; 184894</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>276970; 330217</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>122446</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>191133</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>142540</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>155384</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>55910</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>97606</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>59502</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>94626</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>178356</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>288739</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>202042</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>250010</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>105380; 143914</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>167082; 214984</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>122909; 162244</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>56648; 256105</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>43297; 66985</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>80659; 114155</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>46597; 72861</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>83923; 104814</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>154518; 200707</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>260789; 322839</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>178615; 228627</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>104784; 361677</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1052</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>312197</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>328898</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>293463</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>363056</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>205456</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>225354</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>235998</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>530277</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>517653</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>554252</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>529461</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>893333</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>284411; 344530</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>298536; 361874</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>266276; 323802</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>332513; 397878</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>183989; 229420</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>200903; 253082</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>208191; 260155</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>402579; 753723</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>480675; 558414</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>511513; 595647</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>491473; 566869</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>749805; 1199568</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>74609</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>122648</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>179848</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>174712</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>195167</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>353787</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>338485</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>480606</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>269777</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>476435</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>518332</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>655318</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>60443; 92629</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>103342; 141718</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>156766; 203568</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>154594; 197950</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>170237; 217641</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>323317; 382086</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>311086; 365701</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>425895; 572059</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>242246; 298716</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>442371; 512036</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>483692; 555528</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>594655; 764823</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>9263</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>16680</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>15195</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>36751</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>516122</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>535654</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>469227</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>358693</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>525385</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>552335</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>484422</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>395444</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>4860; 16880</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>9716; 27044</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>8976; 24001</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>21606; 59835</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>480340; 550045</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>501085; 569268</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>435352; 500988</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>331336; 382622</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>490838; 564595</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>515900; 591827</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>449255; 521575</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>364974; 430500</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>797</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1297</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1276</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1130</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2716</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1762</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>2036</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1927</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>4013</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>647068</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>830843</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>809608</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1032304</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1132361</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1373452</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1272191</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1794779</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1779429</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>2204295</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>2081800</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>2827083</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>603598; 690912</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>776359; 886195</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>762324; 859668</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>793123; 1134313</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1082028; 1189370</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1315902; 1432011</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1208376; 1332563</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1655880; 2186846</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1706832; 1850191</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>2118267; 2278013</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>2006201; 2158236</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>2547971; 3215488</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/POLIPATOLOGIA_2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_2-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
